--- a/data/precios.xlsx
+++ b/data/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doria\OneDrive\Documentos\GitHub\Finanzas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC9E60F-B83B-40D7-A4FE-7926F25FD6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09046FB-0A00-4F76-A4F4-601D91269EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2AB80F5E-62F2-4A95-B345-8C09A64E75A7}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="258">
   <si>
     <t>Fecha</t>
   </si>
@@ -785,6 +785,15 @@
   </si>
   <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>Accion1</t>
+  </si>
+  <si>
+    <t>Accion2</t>
+  </si>
+  <si>
+    <t>Accion3</t>
   </si>
 </sst>
 </file>
@@ -1625,2043 +1634,6615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10135F44-FB0D-4043-8C6E-9C9066BDAA8F}">
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:H254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>253</v>
       </c>
       <c r="B2">
         <v>202.37</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2">
+        <v>202.37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2">
+        <v>202.37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2">
+        <v>202.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>252</v>
       </c>
       <c r="B3">
         <v>199.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3">
+        <v>199.95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F3">
+        <v>199.95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3">
+        <v>199.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>251</v>
       </c>
       <c r="B4">
         <v>197.71</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4">
+        <v>197.71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4">
+        <v>197.71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4">
+        <v>197.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>250</v>
       </c>
       <c r="B5">
         <v>198.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5">
+        <v>198.78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5">
+        <v>198.78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5">
+        <v>198.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>249</v>
       </c>
       <c r="B6">
         <v>195.64</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6">
+        <v>195.64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6">
+        <v>195.64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6">
+        <v>195.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
       <c r="B7">
         <v>195.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7">
+        <v>195.46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7">
+        <v>195.46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7">
+        <v>195.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>247</v>
       </c>
       <c r="B8">
         <v>190.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8">
+        <v>190.43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8">
+        <v>190.43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H8">
+        <v>190.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
       <c r="B9">
         <v>191.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9">
+        <v>191.68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9">
+        <v>191.68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9">
+        <v>191.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>245</v>
       </c>
       <c r="B10">
         <v>187.83</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10">
+        <v>187.83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10">
+        <v>187.83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10">
+        <v>187.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>244</v>
       </c>
       <c r="B11">
         <v>188.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11">
+        <v>188.92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11">
+        <v>188.92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11">
+        <v>188.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>243</v>
       </c>
       <c r="B12">
         <v>186.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12">
+        <v>186.73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12">
+        <v>186.73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12">
+        <v>186.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>242</v>
       </c>
       <c r="B13">
         <v>186.29</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13">
+        <v>186.29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13">
+        <v>186.29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13">
+        <v>186.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>241</v>
       </c>
       <c r="B14">
         <v>187.38</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14">
+        <v>187.38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14">
+        <v>187.38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H14">
+        <v>187.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>240</v>
       </c>
       <c r="B15">
         <v>188.49</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15">
+        <v>188.49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15">
+        <v>188.49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15">
+        <v>188.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>239</v>
       </c>
       <c r="B16">
         <v>193.53</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16">
+        <v>193.53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16">
+        <v>193.53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16">
+        <v>193.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>238</v>
       </c>
       <c r="B17">
         <v>196.07</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17">
+        <v>196.07</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17">
+        <v>196.07</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17">
+        <v>196.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>237</v>
       </c>
       <c r="B18">
         <v>191.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18">
+        <v>191.3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>191.3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18">
+        <v>191.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>236</v>
       </c>
       <c r="B19">
         <v>184.91</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19">
+        <v>184.91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19">
+        <v>184.91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19">
+        <v>184.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>235</v>
       </c>
       <c r="B20">
         <v>184.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20">
+        <v>184.93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20">
+        <v>184.93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>235</v>
+      </c>
+      <c r="H20">
+        <v>184.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>234</v>
       </c>
       <c r="B21">
         <v>185.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21">
+        <v>185.6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21">
+        <v>185.6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21">
+        <v>185.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>233</v>
       </c>
       <c r="B22">
         <v>185.69</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22">
+        <v>185.69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22">
+        <v>185.69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>233</v>
+      </c>
+      <c r="H22">
+        <v>185.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>232</v>
       </c>
       <c r="B23">
         <v>182.79</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23">
+        <v>182.79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23">
+        <v>182.79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23">
+        <v>182.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>231</v>
       </c>
       <c r="B24">
         <v>180.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24">
+        <v>180.04</v>
+      </c>
+      <c r="E24" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24">
+        <v>180.04</v>
+      </c>
+      <c r="G24" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24">
+        <v>180.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>230</v>
       </c>
       <c r="B25">
         <v>181.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25">
+        <v>181.03</v>
+      </c>
+      <c r="E25" t="s">
+        <v>230</v>
+      </c>
+      <c r="F25">
+        <v>181.03</v>
+      </c>
+      <c r="G25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25">
+        <v>181.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>229</v>
       </c>
       <c r="B26">
         <v>182.36</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26">
+        <v>182.36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26">
+        <v>182.36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26">
+        <v>182.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>228</v>
       </c>
       <c r="B27">
         <v>177.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27">
+        <v>177.73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27">
+        <v>177.73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27">
+        <v>177.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>227</v>
       </c>
       <c r="B28">
         <v>179.09</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28">
+        <v>179.09</v>
+      </c>
+      <c r="E28" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28">
+        <v>179.09</v>
+      </c>
+      <c r="G28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28">
+        <v>179.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>226</v>
       </c>
       <c r="B29">
         <v>179.69</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29">
+        <v>179.69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29">
+        <v>179.69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29">
+        <v>179.69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>225</v>
       </c>
       <c r="B30">
         <v>182.35</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30">
+        <v>182.35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30">
+        <v>182.35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>224</v>
       </c>
       <c r="B31">
         <v>186.82</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31">
+        <v>186.82</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31">
+        <v>186.82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31">
+        <v>186.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>223</v>
       </c>
       <c r="B32">
         <v>189.38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32">
+        <v>189.38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32">
+        <v>189.38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32">
+        <v>189.38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>222</v>
       </c>
       <c r="B33">
         <v>192.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D33">
+        <v>192.01</v>
+      </c>
+      <c r="E33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33">
+        <v>192.01</v>
+      </c>
+      <c r="G33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33">
+        <v>192.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>221</v>
       </c>
       <c r="B34">
         <v>195.05</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34">
+        <v>195.05</v>
+      </c>
+      <c r="E34" t="s">
+        <v>221</v>
+      </c>
+      <c r="F34">
+        <v>195.05</v>
+      </c>
+      <c r="G34" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34">
+        <v>195.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>220</v>
       </c>
       <c r="B35">
         <v>192.95</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35">
+        <v>192.95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>220</v>
+      </c>
+      <c r="F35">
+        <v>192.95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35">
+        <v>192.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>219</v>
       </c>
       <c r="B36">
         <v>191.41</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36">
+        <v>191.41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36">
+        <v>191.41</v>
+      </c>
+      <c r="G36" t="s">
+        <v>219</v>
+      </c>
+      <c r="H36">
+        <v>191.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>218</v>
       </c>
       <c r="B37">
         <v>191.83</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37">
+        <v>191.83</v>
+      </c>
+      <c r="E37" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37">
+        <v>191.83</v>
+      </c>
+      <c r="G37" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37">
+        <v>191.83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>217</v>
       </c>
       <c r="B38">
         <v>193.33</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38">
+        <v>193.33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38">
+        <v>193.33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>217</v>
+      </c>
+      <c r="H38">
+        <v>193.33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>216</v>
       </c>
       <c r="B39">
         <v>196.65</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39">
+        <v>196.65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39">
+        <v>196.65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39">
+        <v>196.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>215</v>
       </c>
       <c r="B40">
         <v>204.54</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40">
+        <v>204.54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40">
+        <v>204.54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40">
+        <v>204.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>214</v>
       </c>
       <c r="B41">
         <v>207.47</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41">
+        <v>207.47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>214</v>
+      </c>
+      <c r="F41">
+        <v>207.47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41">
+        <v>207.47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>213</v>
       </c>
       <c r="B42">
         <v>208.71</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42">
+        <v>208.71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42">
+        <v>208.71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>213</v>
+      </c>
+      <c r="H42">
+        <v>208.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>212</v>
       </c>
       <c r="B43">
         <v>206.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43">
+        <v>206.6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43">
+        <v>206.6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43">
+        <v>206.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>211</v>
       </c>
       <c r="B44">
         <v>208.04</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44">
+        <v>208.04</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44">
+        <v>208.04</v>
+      </c>
+      <c r="G44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H44">
+        <v>208.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>210</v>
       </c>
       <c r="B45">
         <v>217.71</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45">
+        <v>217.71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45">
+        <v>217.71</v>
+      </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+      <c r="H45">
+        <v>217.71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>209</v>
       </c>
       <c r="B46">
         <v>218.27</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46">
+        <v>218.27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46">
+        <v>218.27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46">
+        <v>218.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>208</v>
       </c>
       <c r="B47">
         <v>219.91</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47">
+        <v>219.91</v>
+      </c>
+      <c r="E47" t="s">
+        <v>208</v>
+      </c>
+      <c r="F47">
+        <v>219.91</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47">
+        <v>219.91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>207</v>
       </c>
       <c r="B48">
         <v>220</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48">
+        <v>220</v>
+      </c>
+      <c r="G48" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>206</v>
       </c>
       <c r="B49">
         <v>219.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49">
+        <v>219.3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49">
+        <v>219.3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49">
+        <v>219.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>205</v>
       </c>
       <c r="B50">
         <v>222.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50">
+        <v>222.37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50">
+        <v>222.37</v>
+      </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50">
+        <v>222.37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>204</v>
       </c>
       <c r="B51">
         <v>224.43</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51">
+        <v>224.43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51">
+        <v>224.43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51">
+        <v>224.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>203</v>
       </c>
       <c r="B52">
         <v>231.63</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52">
+        <v>231.63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>203</v>
+      </c>
+      <c r="F52">
+        <v>231.63</v>
+      </c>
+      <c r="G52" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52">
+        <v>231.63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>202</v>
       </c>
       <c r="B53">
         <v>233.87</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53">
+        <v>233.87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53">
+        <v>233.87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53">
+        <v>233.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>201</v>
       </c>
       <c r="B54">
         <v>234.87</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54">
+        <v>234.87</v>
+      </c>
+      <c r="E54" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54">
+        <v>234.87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54">
+        <v>234.87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>200</v>
       </c>
       <c r="B55">
         <v>234.16</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55">
+        <v>234.16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>234.16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>200</v>
+      </c>
+      <c r="H55">
+        <v>234.16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>199</v>
       </c>
       <c r="B56">
         <v>236.89</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56">
+        <v>236.89</v>
+      </c>
+      <c r="E56" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56">
+        <v>236.89</v>
+      </c>
+      <c r="G56" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56">
+        <v>236.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>198</v>
       </c>
       <c r="B57">
         <v>237.33</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57">
+        <v>237.33</v>
+      </c>
+      <c r="E57" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57">
+        <v>237.33</v>
+      </c>
+      <c r="G57" t="s">
+        <v>198</v>
+      </c>
+      <c r="H57">
+        <v>237.33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>197</v>
       </c>
       <c r="B58">
         <v>244.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58">
+        <v>244.7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58">
+        <v>244.7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>197</v>
+      </c>
+      <c r="H58">
+        <v>244.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>196</v>
       </c>
       <c r="B59">
         <v>248.08</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59">
+        <v>248.08</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="F59">
+        <v>248.08</v>
+      </c>
+      <c r="G59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H59">
+        <v>248.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>195</v>
       </c>
       <c r="B60">
         <v>248.63</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60">
+        <v>248.63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60">
+        <v>248.63</v>
+      </c>
+      <c r="G60" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60">
+        <v>248.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
       <c r="B61">
         <v>250.91</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61">
+        <v>250.91</v>
+      </c>
+      <c r="E61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61">
+        <v>250.91</v>
+      </c>
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61">
+        <v>250.91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
       <c r="B62">
         <v>256.24</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>256.24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62">
+        <v>256.24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>193</v>
+      </c>
+      <c r="H62">
+        <v>256.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>192</v>
       </c>
       <c r="B63">
         <v>264.27</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63">
+        <v>264.27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63">
+        <v>264.27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63">
+        <v>264.27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>191</v>
       </c>
       <c r="B64">
         <v>260.41000000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64">
+        <v>260.41000000000003</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64">
+        <v>260.41000000000003</v>
+      </c>
+      <c r="G64" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64">
+        <v>260.41000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>190</v>
       </c>
       <c r="B65">
         <v>263.51</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65">
+        <v>263.51</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65">
+        <v>263.51</v>
+      </c>
+      <c r="G65" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65">
+        <v>263.51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>189</v>
       </c>
       <c r="B66">
         <v>260.25</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66">
+        <v>260.25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66">
+        <v>260.25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>189</v>
+      </c>
+      <c r="H66">
+        <v>260.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>188</v>
       </c>
       <c r="B67">
         <v>262.02</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67">
+        <v>262.02</v>
+      </c>
+      <c r="E67" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67">
+        <v>262.02</v>
+      </c>
+      <c r="G67" t="s">
+        <v>188</v>
+      </c>
+      <c r="H67">
+        <v>262.02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
       <c r="B68">
         <v>260.44</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68">
+        <v>260.44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68">
+        <v>260.44</v>
+      </c>
+      <c r="G68" t="s">
+        <v>187</v>
+      </c>
+      <c r="H68">
+        <v>260.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>186</v>
       </c>
       <c r="B69">
         <v>262.79000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69">
+        <v>262.79000000000002</v>
+      </c>
+      <c r="E69" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69">
+        <v>262.79000000000002</v>
+      </c>
+      <c r="G69" t="s">
+        <v>186</v>
+      </c>
+      <c r="H69">
+        <v>262.79000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>185</v>
       </c>
       <c r="B70">
         <v>262.10000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="E70" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70">
+        <v>262.10000000000002</v>
+      </c>
+      <c r="G70" t="s">
+        <v>185</v>
+      </c>
+      <c r="H70">
+        <v>262.10000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>184</v>
       </c>
       <c r="B71">
         <v>260.35000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="E71" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71">
+        <v>260.35000000000002</v>
+      </c>
+      <c r="G71" t="s">
+        <v>184</v>
+      </c>
+      <c r="H71">
+        <v>260.35000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>183</v>
       </c>
       <c r="B72">
         <v>260.66000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72">
+        <v>260.66000000000003</v>
+      </c>
+      <c r="E72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F72">
+        <v>260.66000000000003</v>
+      </c>
+      <c r="G72" t="s">
+        <v>183</v>
+      </c>
+      <c r="H72">
+        <v>260.66000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>182</v>
       </c>
       <c r="B73">
         <v>251.76</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D73">
+        <v>251.76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73">
+        <v>251.76</v>
+      </c>
+      <c r="G73" t="s">
+        <v>182</v>
+      </c>
+      <c r="H73">
+        <v>251.76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
       <c r="B74">
         <v>243.91</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74">
+        <v>243.91</v>
+      </c>
+      <c r="E74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74">
+        <v>243.91</v>
+      </c>
+      <c r="G74" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74">
+        <v>243.91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>180</v>
       </c>
       <c r="B75">
         <v>244.94</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75">
+        <v>244.94</v>
+      </c>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75">
+        <v>244.94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>180</v>
+      </c>
+      <c r="H75">
+        <v>244.94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>179</v>
       </c>
       <c r="B76">
         <v>249</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76">
+        <v>249</v>
+      </c>
+      <c r="E76" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76">
+        <v>249</v>
+      </c>
+      <c r="G76" t="s">
+        <v>179</v>
+      </c>
+      <c r="H76">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
       <c r="B77">
         <v>229</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77">
+        <v>229</v>
+      </c>
+      <c r="E77" t="s">
+        <v>178</v>
+      </c>
+      <c r="F77">
+        <v>229</v>
+      </c>
+      <c r="G77" t="s">
+        <v>178</v>
+      </c>
+      <c r="H77">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>177</v>
       </c>
       <c r="B78">
         <v>225.76</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78">
+        <v>225.76</v>
+      </c>
+      <c r="E78" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78">
+        <v>225.76</v>
+      </c>
+      <c r="G78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H78">
+        <v>225.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>176</v>
       </c>
       <c r="B79">
         <v>227.84</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79">
+        <v>227.84</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79">
+        <v>227.84</v>
+      </c>
+      <c r="G79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H79">
+        <v>227.84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>175</v>
       </c>
       <c r="B80">
         <v>222.66</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80">
+        <v>222.66</v>
+      </c>
+      <c r="E80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F80">
+        <v>222.66</v>
+      </c>
+      <c r="G80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H80">
+        <v>222.66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>174</v>
       </c>
       <c r="B81">
         <v>217.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81">
+        <v>217.7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81">
+        <v>217.7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>174</v>
+      </c>
+      <c r="H81">
+        <v>217.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>173</v>
       </c>
       <c r="B82">
         <v>200.52</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82">
+        <v>200.52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>173</v>
+      </c>
+      <c r="F82">
+        <v>200.52</v>
+      </c>
+      <c r="G82" t="s">
+        <v>173</v>
+      </c>
+      <c r="H82">
+        <v>200.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
       <c r="B83">
         <v>203.06</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83">
+        <v>203.06</v>
+      </c>
+      <c r="E83" t="s">
+        <v>172</v>
+      </c>
+      <c r="F83">
+        <v>203.06</v>
+      </c>
+      <c r="G83" t="s">
+        <v>172</v>
+      </c>
+      <c r="H83">
+        <v>203.06</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>171</v>
       </c>
       <c r="B84">
         <v>211.61</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84">
+        <v>211.61</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84">
+        <v>211.61</v>
+      </c>
+      <c r="G84" t="s">
+        <v>171</v>
+      </c>
+      <c r="H84">
+        <v>211.61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>170</v>
       </c>
       <c r="B85">
         <v>215.02</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85">
+        <v>215.02</v>
+      </c>
+      <c r="E85" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85">
+        <v>215.02</v>
+      </c>
+      <c r="G85" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85">
+        <v>215.02</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>169</v>
       </c>
       <c r="B86">
         <v>214.93</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86">
+        <v>214.93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+      <c r="F86">
+        <v>214.93</v>
+      </c>
+      <c r="G86" t="s">
+        <v>169</v>
+      </c>
+      <c r="H86">
+        <v>214.93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>168</v>
       </c>
       <c r="B87">
         <v>211.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87">
+        <v>211.5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87">
+        <v>211.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>168</v>
+      </c>
+      <c r="H87">
+        <v>211.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>167</v>
       </c>
       <c r="B88">
         <v>214.13</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88">
+        <v>214.13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>167</v>
+      </c>
+      <c r="F88">
+        <v>214.13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>167</v>
+      </c>
+      <c r="H88">
+        <v>214.13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>166</v>
       </c>
       <c r="B89">
         <v>201.88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D89">
+        <v>201.88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89">
+        <v>201.88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>166</v>
+      </c>
+      <c r="H89">
+        <v>201.88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>165</v>
       </c>
       <c r="B90">
         <v>205.47</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90">
+        <v>205.47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>165</v>
+      </c>
+      <c r="F90">
+        <v>205.47</v>
+      </c>
+      <c r="G90" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90">
+        <v>205.47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
       <c r="B91">
         <v>205.19</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91">
+        <v>205.19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91">
+        <v>205.19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91">
+        <v>205.19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>163</v>
       </c>
       <c r="B92">
         <v>200.44</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>163</v>
+      </c>
+      <c r="D92">
+        <v>200.44</v>
+      </c>
+      <c r="E92" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92">
+        <v>200.44</v>
+      </c>
+      <c r="G92" t="s">
+        <v>163</v>
+      </c>
+      <c r="H92">
+        <v>200.44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>162</v>
       </c>
       <c r="B93">
         <v>211.04</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>162</v>
+      </c>
+      <c r="D93">
+        <v>211.04</v>
+      </c>
+      <c r="E93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93">
+        <v>211.04</v>
+      </c>
+      <c r="G93" t="s">
+        <v>162</v>
+      </c>
+      <c r="H93">
+        <v>211.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>161</v>
       </c>
       <c r="B94">
         <v>209.81</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94">
+        <v>209.81</v>
+      </c>
+      <c r="E94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94">
+        <v>209.81</v>
+      </c>
+      <c r="G94" t="s">
+        <v>161</v>
+      </c>
+      <c r="H94">
+        <v>209.81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>160</v>
       </c>
       <c r="B95">
         <v>209.38</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>160</v>
+      </c>
+      <c r="D95">
+        <v>209.38</v>
+      </c>
+      <c r="E95" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95">
+        <v>209.38</v>
+      </c>
+      <c r="G95" t="s">
+        <v>160</v>
+      </c>
+      <c r="H95">
+        <v>209.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>159</v>
       </c>
       <c r="B96">
         <v>206.63</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>159</v>
+      </c>
+      <c r="D96">
+        <v>206.63</v>
+      </c>
+      <c r="E96" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96">
+        <v>206.63</v>
+      </c>
+      <c r="G96" t="s">
+        <v>159</v>
+      </c>
+      <c r="H96">
+        <v>206.63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
       <c r="B97">
         <v>208.58</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97">
+        <v>208.58</v>
+      </c>
+      <c r="E97" t="s">
+        <v>158</v>
+      </c>
+      <c r="F97">
+        <v>208.58</v>
+      </c>
+      <c r="G97" t="s">
+        <v>158</v>
+      </c>
+      <c r="H97">
+        <v>208.58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>157</v>
       </c>
       <c r="B98">
         <v>211.92</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>157</v>
+      </c>
+      <c r="D98">
+        <v>211.92</v>
+      </c>
+      <c r="E98" t="s">
+        <v>157</v>
+      </c>
+      <c r="F98">
+        <v>211.92</v>
+      </c>
+      <c r="G98" t="s">
+        <v>157</v>
+      </c>
+      <c r="H98">
+        <v>211.92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>156</v>
       </c>
       <c r="B99">
         <v>209.22</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99">
+        <v>209.22</v>
+      </c>
+      <c r="E99" t="s">
+        <v>156</v>
+      </c>
+      <c r="F99">
+        <v>209.22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99">
+        <v>209.22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>155</v>
       </c>
       <c r="B100">
         <v>209.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100">
+        <v>209.2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100">
+        <v>209.2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>155</v>
+      </c>
+      <c r="H100">
+        <v>209.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>154</v>
       </c>
       <c r="B101">
         <v>209.33</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101">
+        <v>209.33</v>
+      </c>
+      <c r="E101" t="s">
+        <v>154</v>
+      </c>
+      <c r="F101">
+        <v>209.33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>154</v>
+      </c>
+      <c r="H101">
+        <v>209.33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>153</v>
       </c>
       <c r="B102">
         <v>204.46</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102">
+        <v>204.46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102">
+        <v>204.46</v>
+      </c>
+      <c r="G102" t="s">
+        <v>153</v>
+      </c>
+      <c r="H102">
+        <v>204.46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>152</v>
       </c>
       <c r="B103">
         <v>203.38</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103">
+        <v>203.38</v>
+      </c>
+      <c r="E103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103">
+        <v>203.38</v>
+      </c>
+      <c r="G103" t="s">
+        <v>152</v>
+      </c>
+      <c r="H103">
+        <v>203.38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>151</v>
       </c>
       <c r="B104">
         <v>205.33</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104">
+        <v>205.33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F104">
+        <v>205.33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>151</v>
+      </c>
+      <c r="H104">
+        <v>205.33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>150</v>
       </c>
       <c r="B105">
         <v>203.89</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105">
+        <v>203.89</v>
+      </c>
+      <c r="E105" t="s">
+        <v>150</v>
+      </c>
+      <c r="F105">
+        <v>203.89</v>
+      </c>
+      <c r="G105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H105">
+        <v>203.89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>149</v>
       </c>
       <c r="B106">
         <v>203.37</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106">
+        <v>203.37</v>
+      </c>
+      <c r="E106" t="s">
+        <v>149</v>
+      </c>
+      <c r="F106">
+        <v>203.37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H106">
+        <v>203.37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>148</v>
       </c>
       <c r="B107">
         <v>201.57</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107">
+        <v>201.57</v>
+      </c>
+      <c r="E107" t="s">
+        <v>148</v>
+      </c>
+      <c r="F107">
+        <v>201.57</v>
+      </c>
+      <c r="G107" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107">
+        <v>201.57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>147</v>
       </c>
       <c r="B108">
         <v>201.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108">
+        <v>201.5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>147</v>
+      </c>
+      <c r="F108">
+        <v>201.5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>147</v>
+      </c>
+      <c r="H108">
+        <v>201.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>146</v>
       </c>
       <c r="B109">
         <v>200.83</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109">
+        <v>200.83</v>
+      </c>
+      <c r="E109" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109">
+        <v>200.83</v>
+      </c>
+      <c r="G109" t="s">
+        <v>146</v>
+      </c>
+      <c r="H109">
+        <v>200.83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>145</v>
       </c>
       <c r="B110">
         <v>200.54</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>145</v>
+      </c>
+      <c r="D110">
+        <v>200.54</v>
+      </c>
+      <c r="E110" t="s">
+        <v>145</v>
+      </c>
+      <c r="F110">
+        <v>200.54</v>
+      </c>
+      <c r="G110" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110">
+        <v>200.54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>144</v>
       </c>
       <c r="B111">
         <v>201.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>144</v>
+      </c>
+      <c r="D111">
+        <v>201.4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111">
+        <v>201.4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>144</v>
+      </c>
+      <c r="H111">
+        <v>201.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>143</v>
       </c>
       <c r="B112">
         <v>207</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112">
+        <v>207</v>
+      </c>
+      <c r="E112" t="s">
+        <v>143</v>
+      </c>
+      <c r="F112">
+        <v>207</v>
+      </c>
+      <c r="G112" t="s">
+        <v>143</v>
+      </c>
+      <c r="H112">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>142</v>
       </c>
       <c r="B113">
         <v>203.72</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113">
+        <v>203.72</v>
+      </c>
+      <c r="E113" t="s">
+        <v>142</v>
+      </c>
+      <c r="F113">
+        <v>203.72</v>
+      </c>
+      <c r="G113" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113">
+        <v>203.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>141</v>
       </c>
       <c r="B114">
         <v>200</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114">
+        <v>200</v>
+      </c>
+      <c r="E114" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114">
+        <v>200</v>
+      </c>
+      <c r="G114" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>140</v>
       </c>
       <c r="B115">
         <v>200.54</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>140</v>
+      </c>
+      <c r="D115">
+        <v>200.54</v>
+      </c>
+      <c r="E115" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115">
+        <v>200.54</v>
+      </c>
+      <c r="G115" t="s">
+        <v>140</v>
+      </c>
+      <c r="H115">
+        <v>200.54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>139</v>
       </c>
       <c r="B116">
         <v>201.14</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116">
+        <v>201.14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>139</v>
+      </c>
+      <c r="F116">
+        <v>201.14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>139</v>
+      </c>
+      <c r="H116">
+        <v>201.14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
       <c r="B117">
         <v>201</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>138</v>
+      </c>
+      <c r="D117">
+        <v>201</v>
+      </c>
+      <c r="E117" t="s">
+        <v>138</v>
+      </c>
+      <c r="F117">
+        <v>201</v>
+      </c>
+      <c r="G117" t="s">
+        <v>138</v>
+      </c>
+      <c r="H117">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>137</v>
       </c>
       <c r="B118">
         <v>203.03</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>137</v>
+      </c>
+      <c r="D118">
+        <v>203.03</v>
+      </c>
+      <c r="E118" t="s">
+        <v>137</v>
+      </c>
+      <c r="F118">
+        <v>203.03</v>
+      </c>
+      <c r="G118" t="s">
+        <v>137</v>
+      </c>
+      <c r="H118">
+        <v>203.03</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>136</v>
       </c>
       <c r="B119">
         <v>198.49</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119">
+        <v>198.49</v>
+      </c>
+      <c r="E119" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119">
+        <v>198.49</v>
+      </c>
+      <c r="G119" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119">
+        <v>198.49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>135</v>
       </c>
       <c r="B120">
         <v>192.49</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>135</v>
+      </c>
+      <c r="D120">
+        <v>192.49</v>
+      </c>
+      <c r="E120" t="s">
+        <v>135</v>
+      </c>
+      <c r="F120">
+        <v>192.49</v>
+      </c>
+      <c r="G120" t="s">
+        <v>135</v>
+      </c>
+      <c r="H120">
+        <v>192.49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
       <c r="B121">
         <v>184.24</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121">
+        <v>184.24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+      <c r="F121">
+        <v>184.24</v>
+      </c>
+      <c r="G121" t="s">
+        <v>134</v>
+      </c>
+      <c r="H121">
+        <v>184.24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>133</v>
       </c>
       <c r="B122">
         <v>182.35</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122">
+        <v>182.35</v>
+      </c>
+      <c r="E122" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122">
+        <v>182.35</v>
+      </c>
+      <c r="G122" t="s">
+        <v>133</v>
+      </c>
+      <c r="H122">
+        <v>182.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>132</v>
       </c>
       <c r="B123">
         <v>181.15</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123">
+        <v>181.15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>132</v>
+      </c>
+      <c r="F123">
+        <v>181.15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>132</v>
+      </c>
+      <c r="H123">
+        <v>181.15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>131</v>
       </c>
       <c r="B124">
         <v>182.53</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124">
+        <v>182.53</v>
+      </c>
+      <c r="E124" t="s">
+        <v>131</v>
+      </c>
+      <c r="F124">
+        <v>182.53</v>
+      </c>
+      <c r="G124" t="s">
+        <v>131</v>
+      </c>
+      <c r="H124">
+        <v>182.53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>130</v>
       </c>
       <c r="B125">
         <v>179.84</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="D125">
+        <v>179.84</v>
+      </c>
+      <c r="E125" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125">
+        <v>179.84</v>
+      </c>
+      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="H125">
+        <v>179.84</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
       <c r="B126">
         <v>181.14</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126">
+        <v>181.14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126">
+        <v>181.14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>129</v>
+      </c>
+      <c r="H126">
+        <v>181.14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
       <c r="B127">
         <v>187.78</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127">
+        <v>187.78</v>
+      </c>
+      <c r="E127" t="s">
+        <v>128</v>
+      </c>
+      <c r="F127">
+        <v>187.78</v>
+      </c>
+      <c r="G127" t="s">
+        <v>128</v>
+      </c>
+      <c r="H127">
+        <v>187.78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>187.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128">
+        <v>187.7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>127</v>
+      </c>
+      <c r="F128">
+        <v>187.7</v>
+      </c>
+      <c r="G128" t="s">
+        <v>127</v>
+      </c>
+      <c r="H128">
+        <v>187.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>126</v>
       </c>
       <c r="B129">
         <v>188.85</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129">
+        <v>188.85</v>
+      </c>
+      <c r="E129" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129">
+        <v>188.85</v>
+      </c>
+      <c r="G129" t="s">
+        <v>126</v>
+      </c>
+      <c r="H129">
+        <v>188.85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>125</v>
       </c>
       <c r="B130">
         <v>191.41</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130">
+        <v>191.41</v>
+      </c>
+      <c r="E130" t="s">
+        <v>125</v>
+      </c>
+      <c r="F130">
+        <v>191.41</v>
+      </c>
+      <c r="G130" t="s">
+        <v>125</v>
+      </c>
+      <c r="H130">
+        <v>191.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>124</v>
       </c>
       <c r="B131">
         <v>187.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>124</v>
+      </c>
+      <c r="D131">
+        <v>187.5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>124</v>
+      </c>
+      <c r="F131">
+        <v>187.5</v>
+      </c>
+      <c r="G131" t="s">
+        <v>124</v>
+      </c>
+      <c r="H131">
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>123</v>
       </c>
       <c r="B132">
         <v>191.95</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>123</v>
+      </c>
+      <c r="D132">
+        <v>191.95</v>
+      </c>
+      <c r="E132" t="s">
+        <v>123</v>
+      </c>
+      <c r="F132">
+        <v>191.95</v>
+      </c>
+      <c r="G132" t="s">
+        <v>123</v>
+      </c>
+      <c r="H132">
+        <v>191.95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>122</v>
       </c>
       <c r="B133">
         <v>192.99</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>122</v>
+      </c>
+      <c r="D133">
+        <v>192.99</v>
+      </c>
+      <c r="E133" t="s">
+        <v>122</v>
+      </c>
+      <c r="F133">
+        <v>192.99</v>
+      </c>
+      <c r="G133" t="s">
+        <v>122</v>
+      </c>
+      <c r="H133">
+        <v>192.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>121</v>
       </c>
       <c r="B134">
         <v>189.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>121</v>
+      </c>
+      <c r="D134">
+        <v>189.5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134">
+        <v>189.5</v>
+      </c>
+      <c r="G134" t="s">
+        <v>121</v>
+      </c>
+      <c r="H134">
+        <v>189.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>120</v>
       </c>
       <c r="B135">
         <v>188.04</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>120</v>
+      </c>
+      <c r="D135">
+        <v>188.04</v>
+      </c>
+      <c r="E135" t="s">
+        <v>120</v>
+      </c>
+      <c r="F135">
+        <v>188.04</v>
+      </c>
+      <c r="G135" t="s">
+        <v>120</v>
+      </c>
+      <c r="H135">
+        <v>188.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>119</v>
       </c>
       <c r="B136">
         <v>184.92</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>119</v>
+      </c>
+      <c r="D136">
+        <v>184.92</v>
+      </c>
+      <c r="E136" t="s">
+        <v>119</v>
+      </c>
+      <c r="F136">
+        <v>184.92</v>
+      </c>
+      <c r="G136" t="s">
+        <v>119</v>
+      </c>
+      <c r="H136">
+        <v>184.92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>118</v>
       </c>
       <c r="B137">
         <v>183.29</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137">
+        <v>183.29</v>
+      </c>
+      <c r="E137" t="s">
+        <v>118</v>
+      </c>
+      <c r="F137">
+        <v>183.29</v>
+      </c>
+      <c r="G137" t="s">
+        <v>118</v>
+      </c>
+      <c r="H137">
+        <v>183.29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>117</v>
       </c>
       <c r="B138">
         <v>183.14</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138">
+        <v>183.14</v>
+      </c>
+      <c r="E138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F138">
+        <v>183.14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>117</v>
+      </c>
+      <c r="H138">
+        <v>183.14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>116</v>
       </c>
       <c r="B139">
         <v>181.56</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D139">
+        <v>181.56</v>
+      </c>
+      <c r="E139" t="s">
+        <v>116</v>
+      </c>
+      <c r="F139">
+        <v>181.56</v>
+      </c>
+      <c r="G139" t="s">
+        <v>116</v>
+      </c>
+      <c r="H139">
+        <v>181.56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>115</v>
       </c>
       <c r="B140">
         <v>178.12</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140">
+        <v>178.12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>115</v>
+      </c>
+      <c r="F140">
+        <v>178.12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>115</v>
+      </c>
+      <c r="H140">
+        <v>178.12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>114</v>
       </c>
       <c r="B141">
         <v>174.63</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D141">
+        <v>174.63</v>
+      </c>
+      <c r="E141" t="s">
+        <v>114</v>
+      </c>
+      <c r="F141">
+        <v>174.63</v>
+      </c>
+      <c r="G141" t="s">
+        <v>114</v>
+      </c>
+      <c r="H141">
+        <v>174.63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>113</v>
       </c>
       <c r="B142">
         <v>173.36</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>113</v>
+      </c>
+      <c r="D142">
+        <v>173.36</v>
+      </c>
+      <c r="E142" t="s">
+        <v>113</v>
+      </c>
+      <c r="F142">
+        <v>173.36</v>
+      </c>
+      <c r="G142" t="s">
+        <v>113</v>
+      </c>
+      <c r="H142">
+        <v>173.36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>112</v>
       </c>
       <c r="B143">
         <v>169.55</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>112</v>
+      </c>
+      <c r="D143">
+        <v>169.55</v>
+      </c>
+      <c r="E143" t="s">
+        <v>112</v>
+      </c>
+      <c r="F143">
+        <v>169.55</v>
+      </c>
+      <c r="G143" t="s">
+        <v>112</v>
+      </c>
+      <c r="H143">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>111</v>
       </c>
       <c r="B144">
         <v>167.82</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144">
+        <v>167.82</v>
+      </c>
+      <c r="E144" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144">
+        <v>167.82</v>
+      </c>
+      <c r="G144" t="s">
+        <v>111</v>
+      </c>
+      <c r="H144">
+        <v>167.82</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>110</v>
       </c>
       <c r="B145">
         <v>170.55</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145">
+        <v>170.55</v>
+      </c>
+      <c r="E145" t="s">
+        <v>110</v>
+      </c>
+      <c r="F145">
+        <v>170.55</v>
+      </c>
+      <c r="G145" t="s">
+        <v>110</v>
+      </c>
+      <c r="H145">
+        <v>170.55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>109</v>
       </c>
       <c r="B146">
         <v>170.21</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>109</v>
+      </c>
+      <c r="D146">
+        <v>170.21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>109</v>
+      </c>
+      <c r="F146">
+        <v>170.21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>109</v>
+      </c>
+      <c r="H146">
+        <v>170.21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>108</v>
       </c>
       <c r="B147">
         <v>170.23</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>108</v>
+      </c>
+      <c r="D147">
+        <v>170.23</v>
+      </c>
+      <c r="E147" t="s">
+        <v>108</v>
+      </c>
+      <c r="F147">
+        <v>170.23</v>
+      </c>
+      <c r="G147" t="s">
+        <v>108</v>
+      </c>
+      <c r="H147">
+        <v>170.23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>107</v>
       </c>
       <c r="B148">
         <v>169.82</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>107</v>
+      </c>
+      <c r="D148">
+        <v>169.82</v>
+      </c>
+      <c r="E148" t="s">
+        <v>107</v>
+      </c>
+      <c r="F148">
+        <v>169.82</v>
+      </c>
+      <c r="G148" t="s">
+        <v>107</v>
+      </c>
+      <c r="H148">
+        <v>169.82</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>106</v>
       </c>
       <c r="B149">
         <v>170.48</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>106</v>
+      </c>
+      <c r="D149">
+        <v>170.48</v>
+      </c>
+      <c r="E149" t="s">
+        <v>106</v>
+      </c>
+      <c r="F149">
+        <v>170.48</v>
+      </c>
+      <c r="G149" t="s">
+        <v>106</v>
+      </c>
+      <c r="H149">
+        <v>170.48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>105</v>
       </c>
       <c r="B150">
         <v>169.18</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D150">
+        <v>169.18</v>
+      </c>
+      <c r="E150" t="s">
+        <v>105</v>
+      </c>
+      <c r="F150">
+        <v>169.18</v>
+      </c>
+      <c r="G150" t="s">
+        <v>105</v>
+      </c>
+      <c r="H150">
+        <v>169.18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>104</v>
       </c>
       <c r="B151">
         <v>164.33</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151">
+        <v>164.33</v>
+      </c>
+      <c r="E151" t="s">
+        <v>104</v>
+      </c>
+      <c r="F151">
+        <v>164.33</v>
+      </c>
+      <c r="G151" t="s">
+        <v>104</v>
+      </c>
+      <c r="H151">
+        <v>164.33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>103</v>
       </c>
       <c r="B152">
         <v>166.81</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152">
+        <v>166.81</v>
+      </c>
+      <c r="E152" t="s">
+        <v>103</v>
+      </c>
+      <c r="F152">
+        <v>166.81</v>
+      </c>
+      <c r="G152" t="s">
+        <v>103</v>
+      </c>
+      <c r="H152">
+        <v>166.81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>102</v>
       </c>
       <c r="B153">
         <v>167.22</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153">
+        <v>167.22</v>
+      </c>
+      <c r="E153" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153">
+        <v>167.22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>102</v>
+      </c>
+      <c r="H153">
+        <v>167.22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>101</v>
       </c>
       <c r="B154">
         <v>173.49</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>101</v>
+      </c>
+      <c r="D154">
+        <v>173.49</v>
+      </c>
+      <c r="E154" t="s">
+        <v>101</v>
+      </c>
+      <c r="F154">
+        <v>173.49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>101</v>
+      </c>
+      <c r="H154">
+        <v>173.49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>100</v>
       </c>
       <c r="B155">
         <v>167.84</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155">
+        <v>167.84</v>
+      </c>
+      <c r="E155" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155">
+        <v>167.84</v>
+      </c>
+      <c r="G155" t="s">
+        <v>100</v>
+      </c>
+      <c r="H155">
+        <v>167.84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>99</v>
       </c>
       <c r="B156">
         <v>171.46</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>99</v>
+      </c>
+      <c r="D156">
+        <v>171.46</v>
+      </c>
+      <c r="E156" t="s">
+        <v>99</v>
+      </c>
+      <c r="F156">
+        <v>171.46</v>
+      </c>
+      <c r="G156" t="s">
+        <v>99</v>
+      </c>
+      <c r="H156">
+        <v>171.46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
       <c r="B157">
         <v>178.85</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>98</v>
+      </c>
+      <c r="D157">
+        <v>178.85</v>
+      </c>
+      <c r="E157" t="s">
+        <v>98</v>
+      </c>
+      <c r="F157">
+        <v>178.85</v>
+      </c>
+      <c r="G157" t="s">
+        <v>98</v>
+      </c>
+      <c r="H157">
+        <v>178.85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>97</v>
       </c>
       <c r="B158">
         <v>179.79</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>97</v>
+      </c>
+      <c r="D158">
+        <v>179.79</v>
+      </c>
+      <c r="E158" t="s">
+        <v>97</v>
+      </c>
+      <c r="F158">
+        <v>179.79</v>
+      </c>
+      <c r="G158" t="s">
+        <v>97</v>
+      </c>
+      <c r="H158">
+        <v>179.79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>96</v>
       </c>
       <c r="B159">
         <v>178.35</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>96</v>
+      </c>
+      <c r="D159">
+        <v>178.35</v>
+      </c>
+      <c r="E159" t="s">
+        <v>96</v>
+      </c>
+      <c r="F159">
+        <v>178.35</v>
+      </c>
+      <c r="G159" t="s">
+        <v>96</v>
+      </c>
+      <c r="H159">
+        <v>178.35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>95</v>
       </c>
       <c r="B160">
         <v>176.71</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160">
+        <v>176.71</v>
+      </c>
+      <c r="E160" t="s">
+        <v>95</v>
+      </c>
+      <c r="F160">
+        <v>176.71</v>
+      </c>
+      <c r="G160" t="s">
+        <v>95</v>
+      </c>
+      <c r="H160">
+        <v>176.71</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>94</v>
       </c>
       <c r="B161">
         <v>180.35</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>94</v>
+      </c>
+      <c r="D161">
+        <v>180.35</v>
+      </c>
+      <c r="E161" t="s">
+        <v>94</v>
+      </c>
+      <c r="F161">
+        <v>180.35</v>
+      </c>
+      <c r="G161" t="s">
+        <v>94</v>
+      </c>
+      <c r="H161">
+        <v>180.35</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>93</v>
       </c>
       <c r="B162">
         <v>181.25</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162">
+        <v>181.25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162">
+        <v>181.25</v>
+      </c>
+      <c r="G162" t="s">
+        <v>93</v>
+      </c>
+      <c r="H162">
+        <v>181.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>92</v>
       </c>
       <c r="B163">
         <v>178.51</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>92</v>
+      </c>
+      <c r="D163">
+        <v>178.51</v>
+      </c>
+      <c r="E163" t="s">
+        <v>92</v>
+      </c>
+      <c r="F163">
+        <v>178.51</v>
+      </c>
+      <c r="G163" t="s">
+        <v>92</v>
+      </c>
+      <c r="H163">
+        <v>178.51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>91</v>
       </c>
       <c r="B164">
         <v>178.44</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>91</v>
+      </c>
+      <c r="D164">
+        <v>178.44</v>
+      </c>
+      <c r="E164" t="s">
+        <v>91</v>
+      </c>
+      <c r="F164">
+        <v>178.44</v>
+      </c>
+      <c r="G164" t="s">
+        <v>91</v>
+      </c>
+      <c r="H164">
+        <v>178.44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>90</v>
       </c>
       <c r="B165">
         <v>180.76</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>90</v>
+      </c>
+      <c r="D165">
+        <v>180.76</v>
+      </c>
+      <c r="E165" t="s">
+        <v>90</v>
+      </c>
+      <c r="F165">
+        <v>180.76</v>
+      </c>
+      <c r="G165" t="s">
+        <v>90</v>
+      </c>
+      <c r="H165">
+        <v>180.76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>89</v>
       </c>
       <c r="B166">
         <v>176.99</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>89</v>
+      </c>
+      <c r="D166">
+        <v>176.99</v>
+      </c>
+      <c r="E166" t="s">
+        <v>89</v>
+      </c>
+      <c r="F166">
+        <v>176.99</v>
+      </c>
+      <c r="G166" t="s">
+        <v>89</v>
+      </c>
+      <c r="H166">
+        <v>176.99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>88</v>
       </c>
       <c r="B167">
         <v>182.96</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>88</v>
+      </c>
+      <c r="D167">
+        <v>182.96</v>
+      </c>
+      <c r="E167" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167">
+        <v>182.96</v>
+      </c>
+      <c r="G167" t="s">
+        <v>88</v>
+      </c>
+      <c r="H167">
+        <v>182.96</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>87</v>
       </c>
       <c r="B168">
         <v>184.95</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>87</v>
+      </c>
+      <c r="D168">
+        <v>184.95</v>
+      </c>
+      <c r="E168" t="s">
+        <v>87</v>
+      </c>
+      <c r="F168">
+        <v>184.95</v>
+      </c>
+      <c r="G168" t="s">
+        <v>87</v>
+      </c>
+      <c r="H168">
+        <v>184.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>86</v>
       </c>
       <c r="B169">
         <v>186.61</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>86</v>
+      </c>
+      <c r="D169">
+        <v>186.61</v>
+      </c>
+      <c r="E169" t="s">
+        <v>86</v>
+      </c>
+      <c r="F169">
+        <v>186.61</v>
+      </c>
+      <c r="G169" t="s">
+        <v>86</v>
+      </c>
+      <c r="H169">
+        <v>186.61</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>85</v>
       </c>
       <c r="B170">
         <v>184.78</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>85</v>
+      </c>
+      <c r="D170">
+        <v>184.78</v>
+      </c>
+      <c r="E170" t="s">
+        <v>85</v>
+      </c>
+      <c r="F170">
+        <v>184.78</v>
+      </c>
+      <c r="G170" t="s">
+        <v>85</v>
+      </c>
+      <c r="H170">
+        <v>184.78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>84</v>
       </c>
       <c r="B171">
         <v>186.28</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171">
+        <v>186.28</v>
+      </c>
+      <c r="E171" t="s">
+        <v>84</v>
+      </c>
+      <c r="F171">
+        <v>186.28</v>
+      </c>
+      <c r="G171" t="s">
+        <v>84</v>
+      </c>
+      <c r="H171">
+        <v>186.28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>83</v>
       </c>
       <c r="B172">
         <v>172.21</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172">
+        <v>172.21</v>
+      </c>
+      <c r="E172" t="s">
+        <v>83</v>
+      </c>
+      <c r="F172">
+        <v>172.21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>83</v>
+      </c>
+      <c r="H172">
+        <v>172.21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>82</v>
       </c>
       <c r="B173">
         <v>174.52</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>82</v>
+      </c>
+      <c r="D173">
+        <v>174.52</v>
+      </c>
+      <c r="E173" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173">
+        <v>174.52</v>
+      </c>
+      <c r="G173" t="s">
+        <v>82</v>
+      </c>
+      <c r="H173">
+        <v>174.52</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>81</v>
       </c>
       <c r="B174">
         <v>175.08</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>81</v>
+      </c>
+      <c r="D174">
+        <v>175.08</v>
+      </c>
+      <c r="E174" t="s">
+        <v>81</v>
+      </c>
+      <c r="F174">
+        <v>175.08</v>
+      </c>
+      <c r="G174" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174">
+        <v>175.08</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>80</v>
       </c>
       <c r="B175">
         <v>171.65</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>80</v>
+      </c>
+      <c r="D175">
+        <v>171.65</v>
+      </c>
+      <c r="E175" t="s">
+        <v>80</v>
+      </c>
+      <c r="F175">
+        <v>171.65</v>
+      </c>
+      <c r="G175" t="s">
+        <v>80</v>
+      </c>
+      <c r="H175">
+        <v>171.65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>79</v>
       </c>
       <c r="B176">
         <v>172.75</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>79</v>
+      </c>
+      <c r="D176">
+        <v>172.75</v>
+      </c>
+      <c r="E176" t="s">
+        <v>79</v>
+      </c>
+      <c r="F176">
+        <v>172.75</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176">
+        <v>172.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>78</v>
       </c>
       <c r="B177">
         <v>177.61</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>78</v>
+      </c>
+      <c r="D177">
+        <v>177.61</v>
+      </c>
+      <c r="E177" t="s">
+        <v>78</v>
+      </c>
+      <c r="F177">
+        <v>177.61</v>
+      </c>
+      <c r="G177" t="s">
+        <v>78</v>
+      </c>
+      <c r="H177">
+        <v>177.61</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>77</v>
       </c>
       <c r="B178">
         <v>184.57</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>77</v>
+      </c>
+      <c r="D178">
+        <v>184.57</v>
+      </c>
+      <c r="E178" t="s">
+        <v>77</v>
+      </c>
+      <c r="F178">
+        <v>184.57</v>
+      </c>
+      <c r="G178" t="s">
+        <v>77</v>
+      </c>
+      <c r="H178">
+        <v>184.57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>76</v>
       </c>
       <c r="B179">
         <v>188.62</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>76</v>
+      </c>
+      <c r="D179">
+        <v>188.62</v>
+      </c>
+      <c r="E179" t="s">
+        <v>76</v>
+      </c>
+      <c r="F179">
+        <v>188.62</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179">
+        <v>188.62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>75</v>
       </c>
       <c r="B180">
         <v>189.85</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>75</v>
+      </c>
+      <c r="D180">
+        <v>189.85</v>
+      </c>
+      <c r="E180" t="s">
+        <v>75</v>
+      </c>
+      <c r="F180">
+        <v>189.85</v>
+      </c>
+      <c r="G180" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180">
+        <v>189.85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>74</v>
       </c>
       <c r="B181">
         <v>191.42</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>74</v>
+      </c>
+      <c r="D181">
+        <v>191.42</v>
+      </c>
+      <c r="E181" t="s">
+        <v>74</v>
+      </c>
+      <c r="F181">
+        <v>191.42</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181">
+        <v>191.42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>73</v>
       </c>
       <c r="B182">
         <v>190.24</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>73</v>
+      </c>
+      <c r="D182">
+        <v>190.24</v>
+      </c>
+      <c r="E182" t="s">
+        <v>73</v>
+      </c>
+      <c r="F182">
+        <v>190.24</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182">
+        <v>190.24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>72</v>
       </c>
       <c r="B183">
         <v>190.12</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>72</v>
+      </c>
+      <c r="D183">
+        <v>190.12</v>
+      </c>
+      <c r="E183" t="s">
+        <v>72</v>
+      </c>
+      <c r="F183">
+        <v>190.12</v>
+      </c>
+      <c r="G183" t="s">
+        <v>72</v>
+      </c>
+      <c r="H183">
+        <v>190.12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>71</v>
       </c>
       <c r="B184">
         <v>185.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>71</v>
+      </c>
+      <c r="D184">
+        <v>185.5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>71</v>
+      </c>
+      <c r="F184">
+        <v>185.5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>71</v>
+      </c>
+      <c r="H184">
+        <v>185.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>70</v>
       </c>
       <c r="B185">
         <v>182.67</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>70</v>
+      </c>
+      <c r="D185">
+        <v>182.67</v>
+      </c>
+      <c r="E185" t="s">
+        <v>70</v>
+      </c>
+      <c r="F185">
+        <v>182.67</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185">
+        <v>182.67</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>69</v>
       </c>
       <c r="B186">
         <v>180.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>69</v>
+      </c>
+      <c r="D186">
+        <v>180.7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>69</v>
+      </c>
+      <c r="F186">
+        <v>180.7</v>
+      </c>
+      <c r="G186" t="s">
+        <v>69</v>
+      </c>
+      <c r="H186">
+        <v>180.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>68</v>
       </c>
       <c r="B187">
         <v>177.27</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187">
+        <v>177.27</v>
+      </c>
+      <c r="E187" t="s">
+        <v>68</v>
+      </c>
+      <c r="F187">
+        <v>177.27</v>
+      </c>
+      <c r="G187" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187">
+        <v>177.27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>67</v>
       </c>
       <c r="B188">
         <v>178.39</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>67</v>
+      </c>
+      <c r="D188">
+        <v>178.39</v>
+      </c>
+      <c r="E188" t="s">
+        <v>67</v>
+      </c>
+      <c r="F188">
+        <v>178.39</v>
+      </c>
+      <c r="G188" t="s">
+        <v>67</v>
+      </c>
+      <c r="H188">
+        <v>178.39</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>66</v>
       </c>
       <c r="B189">
         <v>174.99</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>66</v>
+      </c>
+      <c r="D189">
+        <v>174.99</v>
+      </c>
+      <c r="E189" t="s">
+        <v>66</v>
+      </c>
+      <c r="F189">
+        <v>174.99</v>
+      </c>
+      <c r="G189" t="s">
+        <v>66</v>
+      </c>
+      <c r="H189">
+        <v>174.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>65</v>
       </c>
       <c r="B190">
         <v>176.3</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>65</v>
+      </c>
+      <c r="D190">
+        <v>176.3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>65</v>
+      </c>
+      <c r="F190">
+        <v>176.3</v>
+      </c>
+      <c r="G190" t="s">
+        <v>65</v>
+      </c>
+      <c r="H190">
+        <v>176.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>64</v>
       </c>
       <c r="B191">
         <v>176.56</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>64</v>
+      </c>
+      <c r="D191">
+        <v>176.56</v>
+      </c>
+      <c r="E191" t="s">
+        <v>64</v>
+      </c>
+      <c r="F191">
+        <v>176.56</v>
+      </c>
+      <c r="G191" t="s">
+        <v>64</v>
+      </c>
+      <c r="H191">
+        <v>176.56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>63</v>
       </c>
       <c r="B192">
         <v>179.1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192">
+        <v>179.1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+      <c r="F192">
+        <v>179.1</v>
+      </c>
+      <c r="G192" t="s">
+        <v>63</v>
+      </c>
+      <c r="H192">
+        <v>179.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>62</v>
       </c>
       <c r="B193">
         <v>175.1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193">
+        <v>175.1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>62</v>
+      </c>
+      <c r="F193">
+        <v>175.1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>62</v>
+      </c>
+      <c r="H193">
+        <v>175.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>61</v>
       </c>
       <c r="B194">
         <v>178.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>61</v>
+      </c>
+      <c r="D194">
+        <v>178.5</v>
+      </c>
+      <c r="E194" t="s">
+        <v>61</v>
+      </c>
+      <c r="F194">
+        <v>178.5</v>
+      </c>
+      <c r="G194" t="s">
+        <v>61</v>
+      </c>
+      <c r="H194">
+        <v>178.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>60</v>
       </c>
       <c r="B195">
         <v>182.51</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195">
+        <v>182.51</v>
+      </c>
+      <c r="E195" t="s">
+        <v>60</v>
+      </c>
+      <c r="F195">
+        <v>182.51</v>
+      </c>
+      <c r="G195" t="s">
+        <v>60</v>
+      </c>
+      <c r="H195">
+        <v>182.51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>59</v>
       </c>
       <c r="B196">
         <v>182.01</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>59</v>
+      </c>
+      <c r="D196">
+        <v>182.01</v>
+      </c>
+      <c r="E196" t="s">
+        <v>59</v>
+      </c>
+      <c r="F196">
+        <v>182.01</v>
+      </c>
+      <c r="G196" t="s">
+        <v>59</v>
+      </c>
+      <c r="H196">
+        <v>182.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>58</v>
       </c>
       <c r="B197">
         <v>186.7</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197">
+        <v>186.7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197">
+        <v>186.7</v>
+      </c>
+      <c r="G197" t="s">
+        <v>58</v>
+      </c>
+      <c r="H197">
+        <v>186.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>57</v>
       </c>
       <c r="B198">
         <v>185.42</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>57</v>
+      </c>
+      <c r="D198">
+        <v>185.42</v>
+      </c>
+      <c r="E198" t="s">
+        <v>57</v>
+      </c>
+      <c r="F198">
+        <v>185.42</v>
+      </c>
+      <c r="G198" t="s">
+        <v>57</v>
+      </c>
+      <c r="H198">
+        <v>185.42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>56</v>
       </c>
       <c r="B199">
         <v>184.31</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>56</v>
+      </c>
+      <c r="D199">
+        <v>184.31</v>
+      </c>
+      <c r="E199" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199">
+        <v>184.31</v>
+      </c>
+      <c r="G199" t="s">
+        <v>56</v>
+      </c>
+      <c r="H199">
+        <v>184.31</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>55</v>
       </c>
       <c r="B200">
         <v>184.83</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>55</v>
+      </c>
+      <c r="D200">
+        <v>184.83</v>
+      </c>
+      <c r="E200" t="s">
+        <v>55</v>
+      </c>
+      <c r="F200">
+        <v>184.83</v>
+      </c>
+      <c r="G200" t="s">
+        <v>55</v>
+      </c>
+      <c r="H200">
+        <v>184.83</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>54</v>
       </c>
       <c r="B201">
         <v>185.84</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>54</v>
+      </c>
+      <c r="D201">
+        <v>185.84</v>
+      </c>
+      <c r="E201" t="s">
+        <v>54</v>
+      </c>
+      <c r="F201">
+        <v>185.84</v>
+      </c>
+      <c r="G201" t="s">
+        <v>54</v>
+      </c>
+      <c r="H201">
+        <v>185.84</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>53</v>
       </c>
       <c r="B202">
         <v>183.24</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>53</v>
+      </c>
+      <c r="D202">
+        <v>183.24</v>
+      </c>
+      <c r="E202" t="s">
+        <v>53</v>
+      </c>
+      <c r="F202">
+        <v>183.24</v>
+      </c>
+      <c r="G202" t="s">
+        <v>53</v>
+      </c>
+      <c r="H202">
+        <v>183.24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>52</v>
       </c>
       <c r="B203">
         <v>183.73</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>52</v>
+      </c>
+      <c r="D203">
+        <v>183.73</v>
+      </c>
+      <c r="E203" t="s">
+        <v>52</v>
+      </c>
+      <c r="F203">
+        <v>183.73</v>
+      </c>
+      <c r="G203" t="s">
+        <v>52</v>
+      </c>
+      <c r="H203">
+        <v>183.73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>51</v>
       </c>
       <c r="B204">
         <v>183.91</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>51</v>
+      </c>
+      <c r="D204">
+        <v>183.91</v>
+      </c>
+      <c r="E204" t="s">
+        <v>51</v>
+      </c>
+      <c r="F204">
+        <v>183.91</v>
+      </c>
+      <c r="G204" t="s">
+        <v>51</v>
+      </c>
+      <c r="H204">
+        <v>183.91</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>50</v>
       </c>
       <c r="B205">
         <v>182.31</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>50</v>
+      </c>
+      <c r="D205">
+        <v>182.31</v>
+      </c>
+      <c r="E205" t="s">
+        <v>50</v>
+      </c>
+      <c r="F205">
+        <v>182.31</v>
+      </c>
+      <c r="G205" t="s">
+        <v>50</v>
+      </c>
+      <c r="H205">
+        <v>182.31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>49</v>
       </c>
       <c r="B206">
         <v>179.11</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>49</v>
+      </c>
+      <c r="D206">
+        <v>179.11</v>
+      </c>
+      <c r="E206" t="s">
+        <v>49</v>
+      </c>
+      <c r="F206">
+        <v>179.11</v>
+      </c>
+      <c r="G206" t="s">
+        <v>49</v>
+      </c>
+      <c r="H206">
+        <v>179.11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>48</v>
       </c>
       <c r="B207">
         <v>186.05</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>48</v>
+      </c>
+      <c r="D207">
+        <v>186.05</v>
+      </c>
+      <c r="E207" t="s">
+        <v>48</v>
+      </c>
+      <c r="F207">
+        <v>186.05</v>
+      </c>
+      <c r="G207" t="s">
+        <v>48</v>
+      </c>
+      <c r="H207">
+        <v>186.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>47</v>
       </c>
       <c r="B208">
         <v>184.84</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>47</v>
+      </c>
+      <c r="D208">
+        <v>184.84</v>
+      </c>
+      <c r="E208" t="s">
+        <v>47</v>
+      </c>
+      <c r="F208">
+        <v>184.84</v>
+      </c>
+      <c r="G208" t="s">
+        <v>47</v>
+      </c>
+      <c r="H208">
+        <v>184.84</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>46</v>
       </c>
       <c r="B209">
         <v>180.23</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>46</v>
+      </c>
+      <c r="D209">
+        <v>180.23</v>
+      </c>
+      <c r="E209" t="s">
+        <v>46</v>
+      </c>
+      <c r="F209">
+        <v>180.23</v>
+      </c>
+      <c r="G209" t="s">
+        <v>46</v>
+      </c>
+      <c r="H209">
+        <v>180.23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>45</v>
       </c>
       <c r="B210">
         <v>179.67</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210">
+        <v>179.67</v>
+      </c>
+      <c r="E210" t="s">
+        <v>45</v>
+      </c>
+      <c r="F210">
+        <v>179.67</v>
+      </c>
+      <c r="G210" t="s">
+        <v>45</v>
+      </c>
+      <c r="H210">
+        <v>179.67</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>44</v>
       </c>
       <c r="B211">
         <v>178.9</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>44</v>
+      </c>
+      <c r="D211">
+        <v>178.9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>44</v>
+      </c>
+      <c r="F211">
+        <v>178.9</v>
+      </c>
+      <c r="G211" t="s">
+        <v>44</v>
+      </c>
+      <c r="H211">
+        <v>178.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>43</v>
       </c>
       <c r="B212">
         <v>186.48</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>43</v>
+      </c>
+      <c r="D212">
+        <v>186.48</v>
+      </c>
+      <c r="E212" t="s">
+        <v>43</v>
+      </c>
+      <c r="F212">
+        <v>186.48</v>
+      </c>
+      <c r="G212" t="s">
+        <v>43</v>
+      </c>
+      <c r="H212">
+        <v>186.48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>42</v>
       </c>
       <c r="B213">
         <v>180.07</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213">
+        <v>180.07</v>
+      </c>
+      <c r="E213" t="s">
+        <v>42</v>
+      </c>
+      <c r="F213">
+        <v>180.07</v>
+      </c>
+      <c r="G213" t="s">
+        <v>42</v>
+      </c>
+      <c r="H213">
+        <v>180.07</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>41</v>
       </c>
       <c r="B214">
         <v>184.35</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214">
+        <v>184.35</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214">
+        <v>184.35</v>
+      </c>
+      <c r="G214" t="s">
+        <v>41</v>
+      </c>
+      <c r="H214">
+        <v>184.35</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>40</v>
       </c>
       <c r="B215">
         <v>186.89</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>40</v>
+      </c>
+      <c r="D215">
+        <v>186.89</v>
+      </c>
+      <c r="E215" t="s">
+        <v>40</v>
+      </c>
+      <c r="F215">
+        <v>186.89</v>
+      </c>
+      <c r="G215" t="s">
+        <v>40</v>
+      </c>
+      <c r="H215">
+        <v>186.89</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>39</v>
       </c>
       <c r="B216">
         <v>185.43</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216">
+        <v>185.43</v>
+      </c>
+      <c r="E216" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216">
+        <v>185.43</v>
+      </c>
+      <c r="G216" t="s">
+        <v>39</v>
+      </c>
+      <c r="H216">
+        <v>185.43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>38</v>
       </c>
       <c r="B217">
         <v>186.86</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217">
+        <v>186.86</v>
+      </c>
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217">
+        <v>186.86</v>
+      </c>
+      <c r="G217" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217">
+        <v>186.86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>37</v>
       </c>
       <c r="B218">
         <v>190.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>37</v>
+      </c>
+      <c r="D218">
+        <v>190.6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>37</v>
+      </c>
+      <c r="F218">
+        <v>190.6</v>
+      </c>
+      <c r="G218" t="s">
+        <v>37</v>
+      </c>
+      <c r="H218">
+        <v>190.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>36</v>
       </c>
       <c r="B219">
         <v>178.31</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>36</v>
+      </c>
+      <c r="D219">
+        <v>178.31</v>
+      </c>
+      <c r="E219" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219">
+        <v>178.31</v>
+      </c>
+      <c r="G219" t="s">
+        <v>36</v>
+      </c>
+      <c r="H219">
+        <v>178.31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>35</v>
       </c>
       <c r="B220">
         <v>169.95</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>35</v>
+      </c>
+      <c r="D220">
+        <v>169.95</v>
+      </c>
+      <c r="E220" t="s">
+        <v>35</v>
+      </c>
+      <c r="F220">
+        <v>169.95</v>
+      </c>
+      <c r="G220" t="s">
+        <v>35</v>
+      </c>
+      <c r="H220">
+        <v>169.95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>34</v>
       </c>
       <c r="B221">
         <v>167.03</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221">
+        <v>167.03</v>
+      </c>
+      <c r="E221" t="s">
+        <v>34</v>
+      </c>
+      <c r="F221">
+        <v>167.03</v>
+      </c>
+      <c r="G221" t="s">
+        <v>34</v>
+      </c>
+      <c r="H221">
+        <v>167.03</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>33</v>
       </c>
       <c r="B222">
         <v>165.04</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>33</v>
+      </c>
+      <c r="D222">
+        <v>165.04</v>
+      </c>
+      <c r="E222" t="s">
+        <v>33</v>
+      </c>
+      <c r="F222">
+        <v>165.04</v>
+      </c>
+      <c r="G222" t="s">
+        <v>33</v>
+      </c>
+      <c r="H222">
+        <v>165.04</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>32</v>
       </c>
       <c r="B223">
         <v>163.24</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>32</v>
+      </c>
+      <c r="D223">
+        <v>163.24</v>
+      </c>
+      <c r="E223" t="s">
+        <v>32</v>
+      </c>
+      <c r="F223">
+        <v>163.24</v>
+      </c>
+      <c r="G223" t="s">
+        <v>32</v>
+      </c>
+      <c r="H223">
+        <v>163.24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>31</v>
       </c>
       <c r="B224">
         <v>168.87</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224">
+        <v>168.87</v>
+      </c>
+      <c r="E224" t="s">
+        <v>31</v>
+      </c>
+      <c r="F224">
+        <v>168.87</v>
+      </c>
+      <c r="G224" t="s">
+        <v>31</v>
+      </c>
+      <c r="H224">
+        <v>168.87</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>30</v>
       </c>
       <c r="B225">
         <v>167.91</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225">
+        <v>167.91</v>
+      </c>
+      <c r="E225" t="s">
+        <v>30</v>
+      </c>
+      <c r="F225">
+        <v>167.91</v>
+      </c>
+      <c r="G225" t="s">
+        <v>30</v>
+      </c>
+      <c r="H225">
+        <v>167.91</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>29</v>
       </c>
       <c r="B226">
         <v>164.13</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>29</v>
+      </c>
+      <c r="D226">
+        <v>164.13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>29</v>
+      </c>
+      <c r="F226">
+        <v>164.13</v>
+      </c>
+      <c r="G226" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226">
+        <v>164.13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>28</v>
       </c>
       <c r="B227">
         <v>168.76</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227">
+        <v>168.76</v>
+      </c>
+      <c r="E227" t="s">
+        <v>28</v>
+      </c>
+      <c r="F227">
+        <v>168.76</v>
+      </c>
+      <c r="G227" t="s">
+        <v>28</v>
+      </c>
+      <c r="H227">
+        <v>168.76</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>27</v>
       </c>
       <c r="B228">
         <v>168.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228">
+        <v>168.5</v>
+      </c>
+      <c r="E228" t="s">
+        <v>27</v>
+      </c>
+      <c r="F228">
+        <v>168.5</v>
+      </c>
+      <c r="G228" t="s">
+        <v>27</v>
+      </c>
+      <c r="H228">
+        <v>168.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>26</v>
       </c>
       <c r="B229">
         <v>176.41</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229">
+        <v>176.41</v>
+      </c>
+      <c r="E229" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229">
+        <v>176.41</v>
+      </c>
+      <c r="G229" t="s">
+        <v>26</v>
+      </c>
+      <c r="H229">
+        <v>176.41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>25</v>
       </c>
       <c r="B230">
         <v>179.99</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230">
+        <v>179.99</v>
+      </c>
+      <c r="E230" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230">
+        <v>179.99</v>
+      </c>
+      <c r="G230" t="s">
+        <v>25</v>
+      </c>
+      <c r="H230">
+        <v>179.99</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>24</v>
       </c>
       <c r="B231">
         <v>179.64</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231">
+        <v>179.64</v>
+      </c>
+      <c r="E231" t="s">
+        <v>24</v>
+      </c>
+      <c r="F231">
+        <v>179.64</v>
+      </c>
+      <c r="G231" t="s">
+        <v>24</v>
+      </c>
+      <c r="H231">
+        <v>179.64</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>23</v>
       </c>
       <c r="B232">
         <v>172.1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232">
+        <v>172.1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232">
+        <v>172.1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>23</v>
+      </c>
+      <c r="H232">
+        <v>172.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>22</v>
       </c>
       <c r="B233">
         <v>173.43</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233">
+        <v>173.43</v>
+      </c>
+      <c r="E233" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233">
+        <v>173.43</v>
+      </c>
+      <c r="G233" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233">
+        <v>173.43</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
       <c r="B234">
         <v>172.76</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234">
+        <v>172.76</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234">
+        <v>172.76</v>
+      </c>
+      <c r="G234" t="s">
+        <v>21</v>
+      </c>
+      <c r="H234">
+        <v>172.76</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>20</v>
       </c>
       <c r="B235">
         <v>174.96</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <v>174.96</v>
+      </c>
+      <c r="E235" t="s">
+        <v>20</v>
+      </c>
+      <c r="F235">
+        <v>174.96</v>
+      </c>
+      <c r="G235" t="s">
+        <v>20</v>
+      </c>
+      <c r="H235">
+        <v>174.96</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>19</v>
       </c>
       <c r="B236">
         <v>173.48</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236">
+        <v>173.48</v>
+      </c>
+      <c r="E236" t="s">
+        <v>19</v>
+      </c>
+      <c r="F236">
+        <v>173.48</v>
+      </c>
+      <c r="G236" t="s">
+        <v>19</v>
+      </c>
+      <c r="H236">
+        <v>173.48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>18</v>
       </c>
       <c r="B237">
         <v>173.05</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>18</v>
+      </c>
+      <c r="D237">
+        <v>173.05</v>
+      </c>
+      <c r="E237" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237">
+        <v>173.05</v>
+      </c>
+      <c r="G237" t="s">
+        <v>18</v>
+      </c>
+      <c r="H237">
+        <v>173.05</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
       <c r="B238">
         <v>170.71</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>17</v>
+      </c>
+      <c r="D238">
+        <v>170.71</v>
+      </c>
+      <c r="E238" t="s">
+        <v>17</v>
+      </c>
+      <c r="F238">
+        <v>170.71</v>
+      </c>
+      <c r="G238" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238">
+        <v>170.71</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>16</v>
       </c>
       <c r="B239">
         <v>172.26</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239">
+        <v>172.26</v>
+      </c>
+      <c r="E239" t="s">
+        <v>16</v>
+      </c>
+      <c r="F239">
+        <v>172.26</v>
+      </c>
+      <c r="G239" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239">
+        <v>172.26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>15</v>
       </c>
       <c r="B240">
         <v>173.74</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240">
+        <v>173.74</v>
+      </c>
+      <c r="E240" t="s">
+        <v>15</v>
+      </c>
+      <c r="F240">
+        <v>173.74</v>
+      </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240">
+        <v>173.74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>14</v>
       </c>
       <c r="B241">
         <v>161.02000000000001</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>14</v>
+      </c>
+      <c r="D241">
+        <v>161.02000000000001</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241">
+        <v>161.02000000000001</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241">
+        <v>161.02000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>13</v>
       </c>
       <c r="B242">
         <v>163.22</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>163.22</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242">
+        <v>163.22</v>
+      </c>
+      <c r="G242" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242">
+        <v>163.22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>12</v>
       </c>
       <c r="B243">
         <v>162.15</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243">
+        <v>162.15</v>
+      </c>
+      <c r="E243" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243">
+        <v>162.15</v>
+      </c>
+      <c r="G243" t="s">
+        <v>12</v>
+      </c>
+      <c r="H243">
+        <v>162.15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>11</v>
       </c>
       <c r="B244">
         <v>157.62</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>11</v>
+      </c>
+      <c r="D244">
+        <v>157.62</v>
+      </c>
+      <c r="E244" t="s">
+        <v>11</v>
+      </c>
+      <c r="F244">
+        <v>157.62</v>
+      </c>
+      <c r="G244" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244">
+        <v>157.62</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>10</v>
       </c>
       <c r="B245">
         <v>162.91</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245">
+        <v>162.91</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>162.91</v>
+      </c>
+      <c r="G245" t="s">
+        <v>10</v>
+      </c>
+      <c r="H245">
+        <v>162.91</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>9</v>
       </c>
       <c r="B246">
         <v>160.07</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246">
+        <v>160.07</v>
+      </c>
+      <c r="E246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246">
+        <v>160.07</v>
+      </c>
+      <c r="G246" t="s">
+        <v>9</v>
+      </c>
+      <c r="H246">
+        <v>160.07</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>8</v>
       </c>
       <c r="B247">
         <v>161.33000000000001</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247">
+        <v>161.33000000000001</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247">
+        <v>161.33000000000001</v>
+      </c>
+      <c r="G247" t="s">
+        <v>8</v>
+      </c>
+      <c r="H247">
+        <v>161.33000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>7</v>
       </c>
       <c r="B248">
         <v>162.77000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248">
+        <v>162.77000000000001</v>
+      </c>
+      <c r="E248" t="s">
+        <v>7</v>
+      </c>
+      <c r="F248">
+        <v>162.77000000000001</v>
+      </c>
+      <c r="G248" t="s">
+        <v>7</v>
+      </c>
+      <c r="H248">
+        <v>162.77000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
       <c r="B249">
         <v>156.77000000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249">
+        <v>156.77000000000001</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249">
+        <v>156.77000000000001</v>
+      </c>
+      <c r="G249" t="s">
+        <v>6</v>
+      </c>
+      <c r="H249">
+        <v>156.77000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
       <c r="B250">
         <v>155.55000000000001</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>5</v>
+      </c>
+      <c r="D250">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="E250" t="s">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="G250" t="s">
+        <v>5</v>
+      </c>
+      <c r="H250">
+        <v>155.55000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>4</v>
       </c>
       <c r="B251">
         <v>156.38999999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <v>156.38999999999999</v>
+      </c>
+      <c r="E251" t="s">
+        <v>4</v>
+      </c>
+      <c r="F251">
+        <v>156.38999999999999</v>
+      </c>
+      <c r="G251" t="s">
+        <v>4</v>
+      </c>
+      <c r="H251">
+        <v>156.38999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>3</v>
       </c>
       <c r="B252">
         <v>155.11000000000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+      <c r="D252">
+        <v>155.11000000000001</v>
+      </c>
+      <c r="E252" t="s">
+        <v>3</v>
+      </c>
+      <c r="F252">
+        <v>155.11000000000001</v>
+      </c>
+      <c r="G252" t="s">
+        <v>3</v>
+      </c>
+      <c r="H252">
+        <v>155.11000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2</v>
       </c>
       <c r="B253">
         <v>154.59</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253">
+        <v>154.59</v>
+      </c>
+      <c r="E253" t="s">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>154.59</v>
+      </c>
+      <c r="G253" t="s">
+        <v>2</v>
+      </c>
+      <c r="H253">
+        <v>154.59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1</v>
       </c>
       <c r="B254">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1</v>
+      </c>
+      <c r="H254">
         <v>153.80000000000001</v>
       </c>
     </row>
